--- a/spreedsheet.xlsx
+++ b/spreedsheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2b70cab3a57626d/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shahi\classlearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C644B9DC-AD74-40EA-9CFB-7774798D66DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DC4FE86-4CEE-449B-AF1E-33E3A42C1414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{10C5D6BE-6C3C-4082-AF76-09D54CBA85E7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Ford</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>white</t>
+  </si>
+  <si>
+    <t>chevy</t>
+  </si>
+  <si>
+    <t>camaro</t>
+  </si>
+  <si>
+    <t>black</t>
   </si>
 </sst>
 </file>
@@ -396,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4A79DC-6CFA-4D00-94FA-C70CBB679241}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -418,6 +427,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>2005</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
